--- a/forcaster-ATM/forcaster-ATM-app/src/baf-configuration/15_ForecastScope.xlsx
+++ b/forcaster-ATM/forcaster-ATM-app/src/baf-configuration/15_ForecastScope.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="990" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="990" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Forecast Scopes" sheetId="1" r:id="rId1"/>
@@ -1071,8 +1071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1185,7 +1185,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1195,8 +1195,8 @@
       <c r="C5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>39</v>
+      <c r="D5" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="E5" t="s">
         <v>55</v>
@@ -1343,7 +1343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>

--- a/forcaster-ATM/forcaster-ATM-app/src/baf-configuration/15_ForecastScope.xlsx
+++ b/forcaster-ATM/forcaster-ATM-app/src/baf-configuration/15_ForecastScope.xlsx
@@ -21,7 +21,7 @@
     <sheet name="Forecast Scopes Labels" sheetId="4" r:id="rId7"/>
     <sheet name="hiddenSheet" sheetId="5" state="hidden" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0" refMode="R1C1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -511,6 +511,7 @@
       <sz val="10"/>
       <color indexed="9"/>
       <name val="Trebuchet MS"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1072,7 +1073,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>

--- a/forcaster-ATM/forcaster-ATM-app/src/baf-configuration/15_ForecastScope.xlsx
+++ b/forcaster-ATM/forcaster-ATM-app/src/baf-configuration/15_ForecastScope.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="990" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="990"/>
   </bookViews>
   <sheets>
     <sheet name="Forecast Scopes" sheetId="1" r:id="rId1"/>
@@ -297,7 +297,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="59">
   <si>
     <t>Action</t>
   </si>
@@ -941,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1070,10 +1070,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1212,6 +1212,32 @@
         <v>58</v>
       </c>
     </row>
+    <row r="6" spans="1:8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
@@ -1223,10 +1249,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D4"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1291,6 +1317,34 @@
         <v>36</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1480,7 +1534,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>

--- a/forcaster-ATM/forcaster-ATM-app/src/baf-configuration/15_ForecastScope.xlsx
+++ b/forcaster-ATM/forcaster-ATM-app/src/baf-configuration/15_ForecastScope.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="990"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="990" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Forecast Scopes" sheetId="1" r:id="rId1"/>
@@ -941,7 +941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
@@ -1073,7 +1073,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD8"/>
+      <selection activeCell="A2" sqref="A2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1108,17 +1108,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" t="s">
         <v>38</v>
       </c>
       <c r="E2" t="s">
@@ -1138,13 +1138,13 @@
       <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>39</v>
       </c>
       <c r="E3" t="s">
@@ -1164,13 +1164,13 @@
       <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>40</v>
       </c>
       <c r="E4" t="s">
@@ -1186,17 +1186,17 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" t="s">
         <v>38</v>
       </c>
       <c r="E5" t="s">
@@ -1251,8 +1251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1361,7 +1361,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.85546875" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>

--- a/forcaster-ATM/forcaster-ATM-app/src/baf-configuration/15_ForecastScope.xlsx
+++ b/forcaster-ATM/forcaster-ATM-app/src/baf-configuration/15_ForecastScope.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="990" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="990" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Forecast Scopes" sheetId="1" r:id="rId1"/>
@@ -297,7 +297,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="60">
   <si>
     <t>Action</t>
   </si>
@@ -474,13 +474,16 @@
   </si>
   <si>
     <t>IMP_TOT_PREL_RIPROP_Mix</t>
+  </si>
+  <si>
+    <t>DAT_INIZIO_ATTIVITA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -531,6 +534,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -563,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -574,6 +583,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -942,12 +952,18 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="8" width="30" style="2" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" width="30" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="37.85546875" style="2" customWidth="1" collapsed="1"/>
     <col min="10" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
@@ -1251,7 +1267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1496,13 +1512,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.85546875" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="35.85546875" style="2" collapsed="1"/>
+    <col min="1" max="1" width="16.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="35.85546875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1519,15 +1539,57 @@
         <v>30</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
